--- a/census_data_types.xlsx
+++ b/census_data_types.xlsx
@@ -5,20 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enzo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Homework\ETLProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B4A8F8-A4B5-461A-8503-36B41DB1C78C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFC747C-E133-43DF-A4A0-CC6054832BF9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{1D1D99CF-828D-441A-A52A-C024EF7B49CA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{1D1D99CF-828D-441A-A52A-C024EF7B49CA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Data_Parameters" sheetId="3" r:id="rId1"/>
+    <sheet name="all_census_data" sheetId="1" r:id="rId2"/>
+    <sheet name="Desired_census_data" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$18</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$A$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">all_census_data!$A$1:$D$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Desired_census_data!$A$1:$A$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="61">
   <si>
     <t>Social</t>
   </si>
@@ -191,6 +192,33 @@
   </si>
   <si>
     <t>Total Population</t>
+  </si>
+  <si>
+    <t>Data Parameters</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>2010 to 2017</t>
+  </si>
+  <si>
+    <t>Geo</t>
+  </si>
+  <si>
+    <t>FBI UCR Data</t>
+  </si>
+  <si>
+    <t>Endpoints pertaining to Arrest Demographic data</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>State level Arrest Demographic Count Endpoint</t>
+  </si>
+  <si>
+    <t>US Census Data</t>
   </si>
 </sst>
 </file>
@@ -562,6 +590,64 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0BA5F4D-BEF8-429C-B724-A06F33DB10CA}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB1E0CD-AE1B-4E68-A604-B097B3035B29}">
   <dimension ref="A1:D18"/>
   <sheetViews>
@@ -779,12 +865,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8027A83-A310-499D-939D-82C59AE6754C}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
